--- a/REGULAR/ASSESSOR/CARAAN ANNABELLE.xlsx
+++ b/REGULAR/ASSESSOR/CARAAN ANNABELLE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="487">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1443,6 +1443,57 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>12/22,25/2023</t>
+  </si>
+  <si>
+    <t>11/15,20/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-24)</t>
+  </si>
+  <si>
+    <t>UT(0-4-32)</t>
+  </si>
+  <si>
+    <t>UT(0-2-5)</t>
+  </si>
+  <si>
+    <t>8/2,16/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-28)</t>
+  </si>
+  <si>
+    <t>6/5,6/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-13)</t>
+  </si>
+  <si>
+    <t>5/4,15,16,29/2023</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/13,21,24/2023</t>
+  </si>
+  <si>
+    <t>UT(0-3-55)</t>
+  </si>
+  <si>
+    <t>2/2,13,21/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-58)</t>
+  </si>
+  <si>
+    <t>1/3,4,16,17,30/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-59)</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2191,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K716" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2469,12 +2520,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K706"/>
+  <dimension ref="A2:K716"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A648" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A639" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
+      <selection pane="bottomLeft" activeCell="F658" sqref="F658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2686,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.899000000000214</v>
+        <v>28.007000000000222</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2645,7 +2696,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>118.80000000000001</v>
+        <v>121.30000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17070,11 +17121,15 @@
       <c r="A651" s="40">
         <v>44927</v>
       </c>
-      <c r="B651" s="20"/>
+      <c r="B651" s="20" t="s">
+        <v>456</v>
+      </c>
       <c r="C651" s="13">
         <v>1.25</v>
       </c>
-      <c r="D651" s="39"/>
+      <c r="D651" s="39">
+        <v>5</v>
+      </c>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
       <c r="G651" s="13">
@@ -17084,22 +17139,24 @@
       <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="20" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B652" s="20"/>
-      <c r="C652" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D652" s="39"/>
+      <c r="A652" s="40"/>
+      <c r="B652" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C652" s="13"/>
+      <c r="D652" s="39">
+        <v>0.248</v>
+      </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
@@ -17108,13 +17165,17 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B653" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>480</v>
+      </c>
       <c r="C653" s="13">
         <v>1.25</v>
       </c>
-      <c r="D653" s="39"/>
+      <c r="D653" s="39">
+        <v>3</v>
+      </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
       <c r="G653" s="13">
@@ -17124,22 +17185,24 @@
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="20" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B654" s="20"/>
-      <c r="C654" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D654" s="39"/>
+      <c r="A654" s="40"/>
+      <c r="B654" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C654" s="13"/>
+      <c r="D654" s="39">
+        <v>0.371</v>
+      </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
@@ -17148,13 +17211,17 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B655" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B655" s="20" t="s">
+        <v>480</v>
+      </c>
       <c r="C655" s="13">
         <v>1.25</v>
       </c>
-      <c r="D655" s="39"/>
+      <c r="D655" s="39">
+        <v>3</v>
+      </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13">
@@ -17164,22 +17231,24 @@
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20"/>
+      <c r="K655" s="20" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B656" s="20"/>
-      <c r="C656" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D656" s="39"/>
+      <c r="A656" s="40"/>
+      <c r="B656" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C656" s="13"/>
+      <c r="D656" s="39">
+        <v>0.49</v>
+      </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
@@ -17188,13 +17257,17 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B657" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B657" s="20" t="s">
+        <v>468</v>
+      </c>
       <c r="C657" s="13">
         <v>1.25</v>
       </c>
-      <c r="D657" s="39"/>
+      <c r="D657" s="39">
+        <v>1</v>
+      </c>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
       <c r="G657" s="13">
@@ -17204,41 +17277,43 @@
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="20"/>
+      <c r="K657" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C658" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D658" s="39"/>
+        <v>333</v>
+      </c>
+      <c r="C658" s="13"/>
+      <c r="D658" s="39">
+        <v>0.39400000000000002</v>
+      </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="49">
-        <v>45155</v>
-      </c>
+      <c r="K658" s="49"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B659" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B659" s="20" t="s">
+        <v>460</v>
+      </c>
       <c r="C659" s="13">
         <v>1.25</v>
       </c>
-      <c r="D659" s="39"/>
+      <c r="D659" s="39">
+        <v>4</v>
+      </c>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
       <c r="G659" s="13">
@@ -17248,22 +17323,24 @@
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20"/>
+      <c r="K659" s="20" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B660" s="20"/>
-      <c r="C660" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D660" s="39"/>
+      <c r="A660" s="40"/>
+      <c r="B660" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C660" s="13"/>
+      <c r="D660" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
@@ -17272,29 +17349,39 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B661" s="20"/>
-      <c r="C661" s="13"/>
-      <c r="D661" s="39"/>
+        <v>45078</v>
+      </c>
+      <c r="B661" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C661" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D661" s="39">
+        <v>2</v>
+      </c>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G661" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20"/>
+      <c r="K661" s="20" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B662" s="20"/>
+      <c r="A662" s="40"/>
+      <c r="B662" s="20" t="s">
+        <v>478</v>
+      </c>
       <c r="C662" s="13"/>
-      <c r="D662" s="39"/>
+      <c r="D662" s="39">
+        <v>0.27700000000000002</v>
+      </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
       <c r="G662" s="13" t="str">
@@ -17307,17 +17394,23 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="13"/>
-      <c r="D663" s="39"/>
+      <c r="A663" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D663" s="39">
+        <v>0.18300000000000002</v>
+      </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
@@ -17326,29 +17419,37 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B664" s="20"/>
-      <c r="C664" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B664" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="20"/>
+      <c r="K664" s="49">
+        <v>45155</v>
+      </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B665" s="20"/>
+      <c r="A665" s="40"/>
+      <c r="B665" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="C665" s="13"/>
-      <c r="D665" s="39"/>
+      <c r="D665" s="39">
+        <v>2</v>
+      </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="13" t="str">
@@ -17358,15 +17459,19 @@
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="49" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B666" s="20"/>
+      <c r="A666" s="40"/>
+      <c r="B666" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="C666" s="13"/>
-      <c r="D666" s="39"/>
+      <c r="D666" s="39">
+        <v>0.8</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
       <c r="G666" s="13" t="str">
@@ -17376,20 +17481,26 @@
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20"/>
+      <c r="K666" s="49"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B667" s="20"/>
-      <c r="C667" s="13"/>
-      <c r="D667" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B667" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D667" s="39">
+        <v>0.26</v>
+      </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
@@ -17398,16 +17509,22 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
-      <c r="D668" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B668" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D668" s="39">
+        <v>0.56699999999999995</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
@@ -17416,27 +17533,39 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B669" s="20"/>
-      <c r="C669" s="13"/>
-      <c r="D669" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D669" s="39">
+        <v>2</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="20" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
-      <c r="B670" s="20"/>
+      <c r="B670" s="20" t="s">
+        <v>472</v>
+      </c>
       <c r="C670" s="13"/>
-      <c r="D670" s="39"/>
+      <c r="D670" s="39">
+        <v>0.3</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
       <c r="G670" s="13" t="str">
@@ -17449,26 +17578,40 @@
       <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="40"/>
-      <c r="B671" s="20"/>
-      <c r="C671" s="13"/>
-      <c r="D671" s="39"/>
+      <c r="A671" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C671" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D671" s="39">
+        <v>2</v>
+      </c>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G671" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
+      <c r="K671" s="20" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
-      <c r="B672" s="20"/>
+      <c r="B672" s="20" t="s">
+        <v>454</v>
+      </c>
       <c r="C672" s="13"/>
-      <c r="D672" s="39"/>
+      <c r="D672" s="39">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
       <c r="G672" s="13" t="str">
@@ -17481,7 +17624,9 @@
       <c r="K672" s="20"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40"/>
+      <c r="A673" s="48" t="s">
+        <v>469</v>
+      </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
       <c r="D673" s="39"/>
@@ -17497,7 +17642,9 @@
       <c r="K673" s="20"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40"/>
+      <c r="A674" s="40">
+        <v>45292</v>
+      </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
       <c r="D674" s="39"/>
@@ -17513,7 +17660,9 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40"/>
+      <c r="A675" s="40">
+        <v>45323</v>
+      </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
       <c r="D675" s="39"/>
@@ -17529,7 +17678,9 @@
       <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40"/>
+      <c r="A676" s="40">
+        <v>45352</v>
+      </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
       <c r="D676" s="39"/>
@@ -17545,7 +17696,9 @@
       <c r="K676" s="20"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40"/>
+      <c r="A677" s="40">
+        <v>45383</v>
+      </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
       <c r="D677" s="39"/>
@@ -17561,7 +17714,9 @@
       <c r="K677" s="20"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40"/>
+      <c r="A678" s="40">
+        <v>45413</v>
+      </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
       <c r="D678" s="39"/>
@@ -17577,7 +17732,9 @@
       <c r="K678" s="20"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40"/>
+      <c r="A679" s="40">
+        <v>45444</v>
+      </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
       <c r="D679" s="39"/>
@@ -18009,20 +18166,180 @@
       <c r="K705" s="20"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="41"/>
-      <c r="B706" s="15"/>
-      <c r="C706" s="42"/>
-      <c r="D706" s="43"/>
+      <c r="A706" s="40"/>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
       <c r="E706" s="9"/>
-      <c r="F706" s="15"/>
-      <c r="G706" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H706" s="43"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
       <c r="I706" s="9"/>
-      <c r="J706" s="12"/>
-      <c r="K706" s="15"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="40"/>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="20"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="40"/>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="40"/>
+      <c r="B709" s="20"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="20"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H709" s="39"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="20"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="40"/>
+      <c r="B710" s="20"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="20"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="39"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="20"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="40"/>
+      <c r="B711" s="20"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="39"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="20"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="39"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="20"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="40"/>
+      <c r="B712" s="20"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="9"/>
+      <c r="F712" s="20"/>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="39"/>
+      <c r="I712" s="9"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="20"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" s="40"/>
+      <c r="B713" s="20"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="20"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H713" s="39"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="20"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" s="40"/>
+      <c r="B714" s="20"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="20"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H714" s="39"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="20"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" s="40"/>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="20"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="20"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" s="41"/>
+      <c r="B716" s="15"/>
+      <c r="C716" s="42"/>
+      <c r="D716" s="43"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="15"/>
+      <c r="G716" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="43"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="12"/>
+      <c r="K716" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18140,11 +18457,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19800000000000001</v>
+        <v>0.248</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -18193,7 +18510,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>172.69900000000024</v>
+        <v>149.30700000000024</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
